--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC04_Product_Comparision.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC04_Product_Comparision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF546AD-20D3-4914-9ADF-ADE9A045546B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D07C321-4784-4FD7-B1D6-559F59E1D220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>TestCase</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>comparision_header</t>
+  </si>
+  <si>
+    <t>CLICK_FROM_MANY</t>
+  </si>
+  <si>
+    <t>Counter</t>
+  </si>
+  <si>
+    <t>WAIT</t>
   </si>
 </sst>
 </file>
@@ -528,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A11:E12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -640,8 +649,8 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -650,14 +659,10 @@
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
@@ -666,7 +671,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
@@ -676,28 +681,52 @@
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -710,10 +739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -746,6 +775,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://192.168.15.18/storeus" xr:uid="{C28EA635-1DD4-4B93-B594-513E4D966091}"/>
@@ -755,12 +792,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -961,15 +995,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -994,10 +1032,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC04_Product_Comparision.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC04_Product_Comparision.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D07C321-4784-4FD7-B1D6-559F59E1D220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417C8845-6A0D-441F-9D27-950A27D4148D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>TestCase</t>
   </si>
@@ -61,36 +61,12 @@
     <t>xpath</t>
   </si>
   <si>
-    <t>$BaseURL</t>
-  </si>
-  <si>
-    <t>CLICK</t>
-  </si>
-  <si>
-    <t>hamburger</t>
-  </si>
-  <si>
-    <t>MOUSEOVER</t>
-  </si>
-  <si>
-    <t>LINK</t>
-  </si>
-  <si>
     <t>SCROLL_DOWN</t>
   </si>
   <si>
     <t>TC04_Product_Comparision</t>
   </si>
   <si>
-    <t>Shoes_Category</t>
-  </si>
-  <si>
-    <t>Atletic_Shoes</t>
-  </si>
-  <si>
-    <t>Mens_Atletic_Shoes</t>
-  </si>
-  <si>
     <t>PDP_compare1</t>
   </si>
   <si>
@@ -121,14 +97,14 @@
     <t>Counter</t>
   </si>
   <si>
-    <t>WAIT</t>
+    <t>http://129.213.54.196:8002/browse/shoes/shop-athletic-shoes/men-s-athletic-shoes/_/N-105339</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -140,6 +116,13 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -180,19 +163,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -537,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -571,7 +559,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -585,49 +573,41 @@
     <row r="3" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -637,97 +617,31 @@
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>27</v>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +656,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -763,21 +677,21 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -785,7 +699,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://192.168.15.18/storeus" xr:uid="{C28EA635-1DD4-4B93-B594-513E4D966091}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8E63FD0B-29B2-4CF8-A077-0F889E025812}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -798,6 +712,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -994,15 +917,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
@@ -1013,6 +927,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1029,12 +951,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>